--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd28</t>
+  </si>
+  <si>
+    <t>Cd86</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd28</t>
-  </si>
-  <si>
-    <t>Cd86</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H2">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="I2">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.220900333333333</v>
+        <v>0.020562</v>
       </c>
       <c r="N2">
-        <v>3.662701</v>
+        <v>0.061686</v>
       </c>
       <c r="O2">
-        <v>0.0143223708955457</v>
+        <v>0.0002281281878049052</v>
       </c>
       <c r="P2">
-        <v>0.01432237089554569</v>
+        <v>0.0002281281878049052</v>
       </c>
       <c r="Q2">
-        <v>0.266384581029</v>
+        <v>0.102028075118</v>
       </c>
       <c r="R2">
-        <v>2.397461229261</v>
+        <v>0.9182526760619999</v>
       </c>
       <c r="S2">
-        <v>0.000402628232308671</v>
+        <v>0.0002281281878049052</v>
       </c>
       <c r="T2">
-        <v>0.0004026282323086709</v>
+        <v>0.0002281281878049052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,72 +581,72 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.961972333333333</v>
+      </c>
+      <c r="H3">
+        <v>14.885917</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.218187</v>
-      </c>
-      <c r="H3">
-        <v>0.6545609999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.02811184232310935</v>
-      </c>
-      <c r="J3">
-        <v>0.02811184232310934</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>84.02338933333334</v>
+        <v>0.01154533333333333</v>
       </c>
       <c r="N3">
-        <v>252.070168</v>
+        <v>0.034636</v>
       </c>
       <c r="O3">
-        <v>0.9856776291044543</v>
+        <v>0.0001280914293812323</v>
       </c>
       <c r="P3">
-        <v>0.9856776291044543</v>
+        <v>0.0001280914293812324</v>
       </c>
       <c r="Q3">
-        <v>18.332811248472</v>
+        <v>0.0572876245791111</v>
       </c>
       <c r="R3">
-        <v>164.995301236248</v>
+        <v>0.515588621212</v>
       </c>
       <c r="S3">
-        <v>0.02770921409080068</v>
+        <v>0.0001280914293812323</v>
       </c>
       <c r="T3">
-        <v>0.02770921409080067</v>
+        <v>0.0001280914293812324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -655,108 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.543204</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H4">
-        <v>22.629612</v>
+        <v>14.885917</v>
       </c>
       <c r="I4">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.220900333333333</v>
+        <v>90.10142766666667</v>
       </c>
       <c r="N4">
-        <v>3.662701</v>
+        <v>270.304283</v>
       </c>
       <c r="O4">
-        <v>0.0143223708955457</v>
+        <v>0.9996437803828139</v>
       </c>
       <c r="P4">
-        <v>0.01432237089554569</v>
+        <v>0.9996437803828139</v>
       </c>
       <c r="Q4">
-        <v>9.209500278001334</v>
+        <v>447.0807912758345</v>
       </c>
       <c r="R4">
-        <v>82.88550250201202</v>
+        <v>4023.727121482511</v>
       </c>
       <c r="S4">
-        <v>0.01391974266323702</v>
+        <v>0.9996437803828139</v>
       </c>
       <c r="T4">
-        <v>0.01391974266323702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.543204</v>
-      </c>
-      <c r="H5">
-        <v>22.629612</v>
-      </c>
-      <c r="I5">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="J5">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>84.02338933333334</v>
-      </c>
-      <c r="N5">
-        <v>252.070168</v>
-      </c>
-      <c r="O5">
-        <v>0.9856776291044543</v>
-      </c>
-      <c r="P5">
-        <v>0.9856776291044543</v>
-      </c>
-      <c r="Q5">
-        <v>633.8055665127574</v>
-      </c>
-      <c r="R5">
-        <v>5704.250098614817</v>
-      </c>
-      <c r="S5">
-        <v>0.9579684150136536</v>
-      </c>
-      <c r="T5">
-        <v>0.9579684150136536</v>
+        <v>0.9996437803828139</v>
       </c>
     </row>
   </sheetData>
